--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1602080.501964709</v>
+        <v>1596990.076323116</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12445555.52943491</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859256.4419733161</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10298469.9452136</v>
+        <v>10465602.60057571</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="G2" t="n">
-        <v>233.6084191422258</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>116.6367944712332</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>115.3507887739392</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>173.6554754181993</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>27.05229071180823</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,25 +822,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>45.59122588175414</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.10853304825635</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196192</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>224.173667038128</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>109.0318497353858</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>167.8296441810571</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.60253898945703</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>137.9032577610058</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>248.1920235529907</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>252.6652313048323</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>154.7484434001345</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>51.7141268183902</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>168.1158122680971</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>14.73874327217517</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>61.17118126752709</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>211.2077032270129</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1864878298223</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>13.23167357738589</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.43352988218092</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6994665666748</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9363529330115</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.606082249036</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>85.79758598644129</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>5.272976156706122</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.8365182023921</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>189.1309449837404</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7612876787265</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>133.8410052537953</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6960058828134</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.8227719694285</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>86.43436349603074</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>284.6879256729647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>304.3915154833894</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081966</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.82219399891187</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081966</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>200.6173698503539</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.119387955706061</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>243.1373908222617</v>
+        <v>180.9172429496413</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>185.6271053876774</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>27.02919805176216</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>157.1838954824118</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>108.5813113004298</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>646.859700735818</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="C2" t="n">
-        <v>646.859700735818</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="D2" t="n">
-        <v>646.859700735818</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="E2" t="n">
-        <v>646.859700735818</v>
+        <v>787.4880118231711</v>
       </c>
       <c r="F2" t="n">
-        <v>639.9141999866146</v>
+        <v>521.4447645856133</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>255.4015173480554</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.07062518121458</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.15993901467408</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>141.9970572935577</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.0714735959997</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>494.9530007796014</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>703.6988094670373</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>887.4762960289006</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1009.825128108074</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="U2" t="n">
-        <v>646.859700735818</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="V2" t="n">
-        <v>646.859700735818</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="W2" t="n">
-        <v>646.859700735818</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="X2" t="n">
-        <v>646.859700735818</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="Y2" t="n">
-        <v>646.859700735818</v>
+        <v>1053.531259060729</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>650.2300771021634</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>475.7770478210364</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>326.8426381597851</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6051831543296</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.07062518121458</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.07062518121458</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.07062518121458</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.07062518121458</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.0004092799704</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>191.586434112467</v>
       </c>
       <c r="L3" t="n">
-        <v>247.7358133554698</v>
+        <v>338.1990901420745</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3365024519936</v>
+        <v>528.6460126286617</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545987</v>
+        <v>738.5421433767118</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>908.3363012748587</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1025.278016062228</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="V3" t="n">
-        <v>651.3101029133441</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="W3" t="n">
-        <v>397.0727461851425</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="X3" t="n">
-        <v>397.0727461851425</v>
+        <v>1026.205712887185</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.3124474201885</v>
+        <v>818.4454141222313</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.2577368622517</v>
+        <v>717.9193086652688</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>548.9831257373619</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>398.8664863250261</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>250.953392742633</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>250.953392742633</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>82.38351298930598</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>82.38351298930598</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.33176967440281</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.07062518121458</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.3277805481203</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.547135250486</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.4958971570836</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>738.8633854210616</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.0791761376815</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1047.079201097379</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>924.7153898972074</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>717.9193086652688</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407077</v>
+        <v>717.9193086652688</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407077</v>
+        <v>717.9193086652688</v>
       </c>
       <c r="V4" t="n">
-        <v>699.6249443274471</v>
+        <v>717.9193086652688</v>
       </c>
       <c r="W4" t="n">
-        <v>433.247287760269</v>
+        <v>717.9193086652688</v>
       </c>
       <c r="X4" t="n">
-        <v>205.2577368622517</v>
+        <v>717.9193086652688</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.2577368622517</v>
+        <v>717.9193086652688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1536.052658116077</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>1536.052658116077</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.786959509327</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>1177.786959509327</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>766.8010547197192</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G5" t="n">
-        <v>350.7700094231265</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642784</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1926.191990091889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1926.191990091889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1926.191990091889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1926.191990091889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1926.191990091889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1536.052658116077</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.2981106200058</v>
+        <v>491.0191073156138</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8450813388788</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9106716776275</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6732166721721</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>302.138658699057</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.2626649141729</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>69.80729798300612</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>783.3386390093535</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>1103.245534477863</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>1446.028058472494</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>1846.763131854547</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>2061.271547415447</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>2154.745546059887</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904653</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.495166406371</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1834.784844880347</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1606.683255013611</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1371.531146781868</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1117.293790053667</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>1117.293790053667</v>
+        <v>866.9947431006358</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.513447640074</v>
+        <v>659.2344443356819</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>439.8120967714473</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>439.8120967714473</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>439.8120967714473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>439.8120967714473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>292.9221492735369</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>292.9221492735369</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>153.6259293129249</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>58.6963092017423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246705</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728883</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640786</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152952</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271086</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693647</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1377.190882465729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1178.011396849955</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1178.011396849955</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1178.011396849955</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1178.011396849955</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>888.5942268129947</v>
+        <v>804.1565063161349</v>
       </c>
       <c r="X7" t="n">
-        <v>660.6046759149774</v>
+        <v>576.1669554181176</v>
       </c>
       <c r="Y7" t="n">
-        <v>439.8120967714473</v>
+        <v>355.3743762745875</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.365042002428</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2406.027769410121</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2074.96488206655</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2074.96488206655</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>2074.96488206655</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>2074.96488206655</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>790.7764984014359</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.038517360656</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.323645957601</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.50262973664</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.4550643866932</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>307.2185726509455</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386098</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671838</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>580.2476435302233</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>580.2476435302233</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.4550643866932</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308157</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367746</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760995</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.384423162751</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>651.3985183731436</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>236.3260682181401</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.140063348091</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372279</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>590.8070661251691</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>590.8070661251691</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>590.8070661251691</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E13" t="n">
-        <v>442.8939725427759</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>296.0040250448656</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>128.3011884195845</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>590.8070661251691</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>590.8070661251691</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1838.494616831088</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1469.532099890677</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1111.266401283926</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>725.4781486856818</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>512.1370343149617</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>97.80724862827253</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>97.80724862827253</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>84.4419217824282</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>335.0994200625337</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>761.5085519770241</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1327.40854764958</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>1988.750767535191</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2665.408004329388</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3291.020984046495</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3790.466187308258</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4117.355988455323</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4222.09608912141</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4128.728887220217</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3926.002153314485</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3672.531089745787</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3341.468202402216</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2988.699547132102</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2615.233788871022</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2225.09445689521</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5575801601279</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.104550879001</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1701412177497</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9326862122941</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3981282391791</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.4323885936882</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>89.76816032455559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>84.4419217824282</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>214.9139636252956</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>516.0662891407521</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>967.32529645672</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1513.280141654408</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1513.280141654408</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.691393688581</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2348.559435964195</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.914333499374</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2555.914333499374</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2433.857244406048</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.815885836613</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.774181110627</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.622072878884</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.384716150683</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.53321594515</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.772917180196</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.230251211331</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>927.2940682834236</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>777.1774288710878</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>629.2643352886947</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>482.3743877907843</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>315.0046848788517</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>171.7493596572067</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>84.4419217824282</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>152.6484119477716</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>394.5694642088829</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>759.6715552029418</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1155.009642160149</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1546.382089455439</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1891.861594484352</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2163.958312236476</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2268.908895574828</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2268.908895574828</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2268.908895574828</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2268.908895574828</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2268.908895574828</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>2014.224407368941</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1726.660846083118</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.6712951851</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1277.87871604157</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555042</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614631</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608048</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251932</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128749</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018649</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874793</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333931</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021279</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127286</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304024</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070873</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750192</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469741</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.39853312617</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856056</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594976</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619164</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608048</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>570.9683475412851</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1061.700680385036</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1653.719034637164</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2275.8149980365</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.5928865798218</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>342.6567036519148</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>342.6567036519148</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>342.6567036519148</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>342.6567036519148</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156343</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861979</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>819.184291169332</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856732</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2378.050325926417</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2194.880135665348</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1975.20135337973</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1686.125139694456</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1431.44065148857</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1142.023481451609</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>914.0339305535916</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>693.2413514100615</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872364</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>92.8116232260805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>92.8116232260805</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251939</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128751</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333931</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021279</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127287</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304025</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070874</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750192</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>92.8116232260805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>92.8116232260805</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412851</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1061.700680385036</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1653.719034637164</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2005.899154770046</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.7775391487162</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>390.8413562208093</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7247168084736</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>92.8116232260805</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>92.8116232260805</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>92.8116232260805</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>92.8116232260805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>92.8116232260805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156343</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861979</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>819.184291169332</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856732</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.234978495312</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.064788234242</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2023.386005948624</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.309792263351</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.625304057464</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.208134020503</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>962.2185831224861</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.4260039789559</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,13 +6126,13 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6217,7 +6217,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6229,16 +6229,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687975</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
         <v>631.7012443408906</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>3473.939263755757</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>4101.537227310363</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>4101.537227310363</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4517.069482196493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4517.069482196493</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>4517.069482196493</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990607</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7028,13 +7028,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630498</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630498</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7362,22 +7362,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7630,10 +7630,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.5467179762944</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>815.6105350483875</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>665.4938956360518</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>517.5808020536587</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>370.6908545557483</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>203.4947552706282</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1166.195182806534</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.59164343877259</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.00790724000426</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.262887399594291</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>134.1688236634909</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>281.9622945443576</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>110.4806334621077</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127221</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>199.751631150407</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>21.89339468985682</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.4919521192234</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.58383364679369</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>195.6683425146985</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>287.0780100260579</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>45.99097492814198</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.10303855405846</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.0214693750426</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.1397936687056</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.193848985092</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.835072663626306</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>50.2915261372936</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.35855759217172</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>50.29152613729244</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440905</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.06136363537753</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>9.000252501566337</v>
+        <v>71.22040037418668</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>66.51053793615057</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>75.37549921168767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>118.3918499711691</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>31.71340154579411</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>920145.2400897081</v>
+        <v>920131.0602217359</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>923759.4217335687</v>
+        <v>920145.2400897081</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761782.5530712596</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852288.270463769</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894536.6841370679</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894536.6841370679</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117841</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="E2" t="n">
-        <v>443296.2286621969</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>496776.8798486796</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647197</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647199</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>679702.4124909316</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414033</v>
+        <v>366.4703680921513</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596104</v>
+        <v>391128.3638059433</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>208781.7516454595</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95052.24834831584</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744888</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68912.53318642134</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447152</v>
+        <v>85.20559774216515</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824959</v>
+        <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>54893.66793774248</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25177.21277645463</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253016.7649073351</v>
+        <v>253116.5477674026</v>
       </c>
       <c r="C4" t="n">
-        <v>170569.6528082928</v>
+        <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.17896214071</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12326.17004636718</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12380.38756059278</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12380.38756059278</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63021.46164557702</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>91920.00353567518</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462475.3982910105</v>
+        <v>-462163.2714921269</v>
       </c>
       <c r="C6" t="n">
-        <v>-30265.7259937838</v>
+        <v>217246.1119320905</v>
       </c>
       <c r="D6" t="n">
-        <v>198588.2378582789</v>
+        <v>-93135.94310170354</v>
       </c>
       <c r="E6" t="n">
-        <v>174706.7293214723</v>
+        <v>-96696.98108612416</v>
       </c>
       <c r="F6" t="n">
-        <v>183748.9546211778</v>
+        <v>410788.4605384218</v>
       </c>
       <c r="G6" t="n">
-        <v>314167.0871419727</v>
+        <v>410788.4605384216</v>
       </c>
       <c r="H6" t="n">
-        <v>409219.3354902887</v>
+        <v>410788.4605384218</v>
       </c>
       <c r="I6" t="n">
-        <v>400316.9263353298</v>
+        <v>410788.4605384216</v>
       </c>
       <c r="J6" t="n">
-        <v>342136.6853736647</v>
+        <v>341875.9273520003</v>
       </c>
       <c r="K6" t="n">
-        <v>339484.3114783072</v>
+        <v>410703.2549406796</v>
       </c>
       <c r="L6" t="n">
-        <v>386214.0005645292</v>
+        <v>315405.814400852</v>
       </c>
       <c r="M6" t="n">
-        <v>363583.5739993641</v>
+        <v>278181.166809495</v>
       </c>
       <c r="N6" t="n">
-        <v>356242.1718550363</v>
+        <v>410788.4605384216</v>
       </c>
       <c r="O6" t="n">
-        <v>385958.6270163241</v>
+        <v>410788.4605384218</v>
       </c>
       <c r="P6" t="n">
-        <v>411135.8397927786</v>
+        <v>410788.4605384216</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>613.7700232960528</v>
+      </c>
+      <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
-      <c r="C3" t="n">
-        <v>853.7106645376841</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1272.667109221548</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716385</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716385</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1055.524022280352</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>613.7700232960528</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682058</v>
+        <v>0.2849904734255233</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985509</v>
+        <v>320.0098783480607</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>182.8904086282494</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85.37393949483771</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288375</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="C4" t="n">
-        <v>278.401076724657</v>
+        <v>0.3310652363239262</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387577</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
-        <v>224.1225668780597</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>104.6212680456536</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364211</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="K4" t="n">
-        <v>278.401076724657</v>
+        <v>0.3310652363237277</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387577</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
-        <v>224.1225668780595</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>104.6212680456538</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="K4" t="n">
-        <v>278.401076724657</v>
+        <v>0.3310652363239262</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387577</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
-        <v>224.1225668780597</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>104.6212680456536</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.5475553070796</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.4932309765292</v>
       </c>
       <c r="G2" t="n">
-        <v>179.2257555034842</v>
+        <v>149.4525055708732</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>197.5685714592849</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.94290942807531</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.19058462642684</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>59.145111731226</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>178.7206944916692</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>76.57480253626902</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>27.96397628570003</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>180.5549891403835</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>99.0404081342181</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>37.94334102242036</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.0801567878473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>10.63655360023938</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>38.33097478360028</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>130.0686103586482</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>96.29680672832748</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>115.5326942802376</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.467417179079607</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.26943618524904</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.12510079646667</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.418948802908</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>313.8647179933479</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.3769364876055</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.2568667460624</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.2674158061224</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.7320362316495</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.8176746231217</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.4532968973331</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>154.9938943753595</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.22626896827661</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>10.80111870142099</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1973933743263686</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320184578410378</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>12.7502036914897</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.45372342333977</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7284912435875</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.1808579970828</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.6479717289727</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.5046626963488</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.3580057682324</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.105494846613</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.0973516439958</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.520403377437</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>81.96724952621629</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.52184951564889</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.321270296312004</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08685424857963016</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.840443980058033</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.28444650923513</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.25064706841643</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.5898507823533</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.5507370653057</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.4956805195711</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.3703410187289</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.4409233148694</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.862235900503</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.67927351770398</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.76568090528322</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.288477617353</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.729047720477783</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06037082196354624</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.11624968531275</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>52.39679208970922</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>197.24421599302</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>434.2352967288135</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>650.8061459081023</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>807.3825722149926</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>898.3686775561731</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>912.9052219745681</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>862.0305141662394</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>735.7231000600807</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.4974082048177</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>321.3836192950274</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>116.5865397040644</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>22.39638299745658</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.40929997482502</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.73743491417465</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>26.43785825005518</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>94.24940384329388</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>258.6275679220883</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>442.0357071717899</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>594.3715588869125</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>693.6035745257434</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>597.5571050850231</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>522.730005672526</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>349.4311655356974</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>50.84665290144576</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.03378371108115</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1800944022483323</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.294973475645413</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>20.40440053801106</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>69.01611143122754</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>162.2546247281307</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>266.6341910795307</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>341.1999656427736</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>359.7475240050351</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>351.193531959448</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>324.3840690848627</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>277.5666101816961</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>192.1727334924537</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>103.190352823111</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>39.99512866192961</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>9.805795759575856</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1251803713988409</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377424</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122281</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830429</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364261</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293306</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229606</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>919.857844208695</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148605</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540904</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735817</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848223</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745723</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>740.13237155043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169088</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862159</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291842</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284924</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273332</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900885</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416873</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282423</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851327</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377424</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122281</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830429</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364261</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293306</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229606</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>919.857844208695</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148605</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540904</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735817</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848223</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745723</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>740.13237155043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>487.0792071670522</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426203</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862159</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291842</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284924</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273332</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900885</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416873</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282423</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851327</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>493.6049778318539</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.37304427622175</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.77486694836733</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.6105215176183</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>202.9106335187897</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>210.8543522095315</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.6338248099628</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.5846788678521</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.14760702288365</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.89877181692508</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.33941902272383</v>
       </c>
       <c r="L3" t="n">
-        <v>153.4895779655506</v>
+        <v>148.0935919490985</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.3706287743304</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.0162936848991</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015062</v>
+        <v>171.5092504021686</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.1229442296655</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.5386292914155</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3203589564705</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.1407623256219</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.0795574814117</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5025133979575</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.026051228909</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>130.3030555148463</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.517230266009591</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>542.1149567261632</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>404.7829024061137</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>215.5616691250132</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231598</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971897</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900911</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212425</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735793</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748827</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349593</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>497.4319917882572</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.584832100039</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>253.1893922021272</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>430.7162948631217</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>571.6161572450053</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>668.0224443289004</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>683.4921583779771</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>631.9323027445527</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>504.4901043048112</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>330.1917183303682</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7980814808952</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>131.7899412554216</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>304.1942681974309</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>455.8171791070383</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>551.4695406037251</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>454.9608606405786</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>388.7555982581957</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>209.4493914496759</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.89544461145795</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>244.3646992536478</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>368.7899909030898</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>399.3314009668757</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>395.3257043386766</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>348.9691969989024</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>274.8451694465896</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.0106902407593</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380623</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664388</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020579</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263696</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870083</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.254733440411</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>127.357360784584</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>149.139375506915</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104633</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946981</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094304</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>279.7582138724644</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066046</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642056</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243779</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209159</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380623</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664388</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020579</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263696</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870083</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.254733440411</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>127.357360784584</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>149.139375506915</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104633</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946981</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>355.7374950837189</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981759</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066046</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642056</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243779</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209159</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>359.6305704175236</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1596990.076323116</v>
+        <v>1599184.016524524</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445555.52943491</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>859256.4419733072</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10465602.60057571</v>
+        <v>10298469.9452136</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651822</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651822</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651822</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>116.6367944712332</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739392</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.36698404190675</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>27.05229071180823</v>
+        <v>10.1845637256568</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -828,19 +828,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>45.59122588175414</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825635</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718863</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196192</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>233.7476545860761</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>232.2791855053265</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>70.80757738781674</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>90.64242831902</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>167.8296441810571</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>156.591069990596</v>
       </c>
       <c r="W7" t="n">
-        <v>248.1920235529907</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>252.6652313048323</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>308.5129727421036</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103881</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>130.7976098817785</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>14.73874327217517</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.1864878298223</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>287.0780100260577</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13.23167357738481</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>92.43352988218028</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>296.6417254291011</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.606082249036</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>85.79758598644113</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.272976156705596</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>120.8365182023918</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>189.1309449837404</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7612876787265</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.8410052537953</v>
+        <v>120.0601939986899</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6960058828133</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.193848985092</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>233.2715658672525</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>18.22623717053461</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>233.2715658672525</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>109.1543427721621</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>23.05950344416366</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>180.9172429496413</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63.1628130171261</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>42.71572132711237</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.1838954824118</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7247859410132</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1053.531259060729</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="C2" t="n">
-        <v>1053.531259060729</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="D2" t="n">
-        <v>1053.531259060729</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="E2" t="n">
-        <v>787.4880118231711</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F2" t="n">
-        <v>521.4447645856133</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>255.4015173480554</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377189</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121458</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467408</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935577</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959997</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796014</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670373</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289006</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108074</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060729</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060729</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060729</v>
+        <v>646.8597007358183</v>
       </c>
       <c r="V2" t="n">
-        <v>1053.531259060729</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="W2" t="n">
-        <v>1053.531259060729</v>
+        <v>114.1043876014621</v>
       </c>
       <c r="X2" t="n">
-        <v>1053.531259060729</v>
+        <v>114.1043876014621</v>
       </c>
       <c r="Y2" t="n">
-        <v>1053.531259060729</v>
+        <v>41.00642392276843</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2300771021634</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>475.7770478210364</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8426381597851</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6051831543296</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121458</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121458</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121458</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121458</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.0004092799704</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>191.586434112467</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420745</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286617</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767118</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748587</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062228</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060729</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.531259060729</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.531259060729</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1053.531259060729</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1053.531259060729</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.531259060729</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.205712887185</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4454141222313</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>717.9193086652688</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="C4" t="n">
-        <v>548.9831257373619</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>398.8664863250261</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>250.953392742633</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>250.953392742633</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>82.38351298930598</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>82.38351298930598</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440281</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121458</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481203</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.547135250486</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570836</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210616</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376815</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097379</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>924.7153898972074</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>717.9193086652688</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>717.9193086652688</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>717.9193086652688</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="V4" t="n">
-        <v>717.9193086652688</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="W4" t="n">
-        <v>717.9193086652688</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="X4" t="n">
-        <v>717.9193086652688</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="Y4" t="n">
-        <v>717.9193086652688</v>
+        <v>818.7467779998875</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>1886.763023614329</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>1517.800506673917</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>1159.534808067167</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>773.7465554689227</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044907</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>2096.937021462414</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1886.763023614329</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>1886.763023614329</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>1886.763023614329</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>1886.763023614329</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>1886.763023614329</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>1886.763023614329</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>491.0191073156138</v>
+        <v>931.2981106200058</v>
       </c>
       <c r="C6" t="n">
-        <v>316.5660780344868</v>
+        <v>756.8450813388788</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>371.4749568374567</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>629.0260923974442</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>948.9329878659535</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>1291.715511860585</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>1583.074758115151</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1867.009313401722</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>1515.12524661056</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>1515.12524661056</v>
       </c>
       <c r="X6" t="n">
-        <v>866.9947431006358</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="Y6" t="n">
-        <v>659.2344443356819</v>
+        <v>1099.513447640074</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.3743762745875</v>
+        <v>507.1084205463035</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466805</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>507.1084205463035</v>
       </c>
       <c r="W7" t="n">
-        <v>804.1565063161349</v>
+        <v>507.1084205463035</v>
       </c>
       <c r="X7" t="n">
-        <v>576.1669554181176</v>
+        <v>507.1084205463035</v>
       </c>
       <c r="Y7" t="n">
-        <v>355.3743762745875</v>
+        <v>507.1084205463035</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.685290191162</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>732.806096806125</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>374.5403981993745</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>374.5403981993745</v>
       </c>
       <c r="F8" t="n">
         <v>62.91113280331017</v>
@@ -4846,10 +4846,10 @@
         <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1488.368453810658</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080694</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.393271046731</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978459</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2326.117195155084</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1957.154678214672</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1598.888979607922</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1213.100727009678</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>802.1148222200701</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>387.7850365333809</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>97.80724862827215</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>84.44192178242891</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>335.0994200625382</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>761.5085519770323</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1327.408547649592</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1988.750767535209</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2665.408004329411</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3291.020984046523</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3790.46618730829</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4117.355988455357</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4222.096089121445</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4128.728887220253</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4128.728887220253</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4128.728887220253</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3829.090780726212</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3476.322125456098</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3102.856367195018</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2712.717035219206</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5575801601279</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.104550879001</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1701412177497</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9326862122941</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3981282391791</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.4323885936882</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>89.76816032455577</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>84.44192178242891</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9139636252978</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>516.0662891407567</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>967.3252964567278</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1513.280141654419</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2052.292266940861</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2555.914333499373</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2555.914333499373</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2555.914333499373</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2555.914333499373</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2433.857244406048</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.815885836613</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.774181110627</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.622072878884</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.384716150683</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.53321594515</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.772917180196</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>865.6674881149077</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>696.7313051870008</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>546.614665774665</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>398.7015721922719</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>251.8116246943616</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>84.44192178242891</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>84.44192178242891</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>84.44192178242891</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>152.6484119477732</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>394.569464208886</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>759.6715552029467</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1155.009642160156</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1546.382089455447</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1891.861594484363</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2163.958312236487</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2268.90889557484</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2268.90889557484</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2268.90889557484</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2268.90889557484</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1979.824199630303</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1725.139711424416</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1435.722541387455</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1207.732990489438</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>986.9404113459076</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200302</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>328.4394675364367</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>846.8182155057106</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2190.286651548252</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1935.602163342365</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1646.184993305405</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1418.195442407387</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200302</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>328.4394675364367</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>846.8182155057106</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2140.837647083051</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1851.761433397778</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1597.076945191891</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1307.65977515493</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1197.402863263857</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6068,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>258.8209219271512</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>117.1090907693493</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
         <v>407.9027098310023</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7012443408906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
         <v>631.7012443408906</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6785,16 +6785,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>883.8931825606599</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>733.7765431483241</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>585.863449565931</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>438.9735020680206</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>271.7774027829005</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7669,31 +7669,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877259</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.00790724000426</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>134.1688236634909</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127221</v>
+        <v>70.12741386431418</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>21.89339468985682</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.2767095024417</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>36.44921121684936</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>131.695219374394</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6994665666747</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9363529330115</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>31.11053304103382</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.99097492814198</v>
+        <v>59.77178618324737</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.8227719694284</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>86.43436349603036</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>74.10303855405789</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.0214693750424</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.1397936687056</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>267.9592143778858</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>116.5553126168751</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>71.22040037418668</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.6691671648112</v>
+        <v>134.6711151870887</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>105.8997516911</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>46.45968844823096</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>920131.0602217359</v>
+        <v>920145.2400897081</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>920145.2400897081</v>
+        <v>923759.4217335687</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899450.1949942408</v>
+        <v>761782.5530712598</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899450.1949942408</v>
+        <v>852288.2704637726</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899450.1949942408</v>
+        <v>894536.6841370682</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899450.1949942408</v>
+        <v>894536.6841370681</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>443296.228662197</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>496776.8798486817</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>521741.85156472</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
@@ -26343,19 +26343,19 @@
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909316</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680921513</v>
+        <v>308174.1417414033</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059433</v>
+        <v>99404.18284596088</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>182072.9798171909</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>208781.7516454675</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>95052.24834830825</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744865</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642134</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774216515</v>
+        <v>71651.52831447151</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756977</v>
+        <v>24921.83922824953</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>47552.265793415</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54893.66793774461</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>25177.21277645255</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674026</v>
+        <v>253016.7649073351</v>
       </c>
       <c r="C4" t="n">
-        <v>253016.7649073352</v>
+        <v>170569.6528082928</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12326.17004636718</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12380.38756059278</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12380.38756059278</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26459,7 +26459,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557702</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>91920.00353567586</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462163.2714921269</v>
+        <v>-462475.3982910105</v>
       </c>
       <c r="C6" t="n">
-        <v>217246.1119320905</v>
+        <v>-30265.72599378368</v>
       </c>
       <c r="D6" t="n">
-        <v>-93135.94310170354</v>
+        <v>198588.2378582791</v>
       </c>
       <c r="E6" t="n">
-        <v>-96696.98108612416</v>
+        <v>174359.1103916659</v>
       </c>
       <c r="F6" t="n">
-        <v>410788.4605384218</v>
+        <v>183607.0305036207</v>
       </c>
       <c r="G6" t="n">
-        <v>410788.4605384216</v>
+        <v>314121.182146415</v>
       </c>
       <c r="H6" t="n">
-        <v>410788.4605384218</v>
+        <v>409173.4304947231</v>
       </c>
       <c r="I6" t="n">
-        <v>410788.4605384216</v>
+        <v>400282.1884098945</v>
       </c>
       <c r="J6" t="n">
-        <v>341875.9273520003</v>
+        <v>342101.9474482288</v>
       </c>
       <c r="K6" t="n">
-        <v>410703.2549406796</v>
+        <v>339449.5735528715</v>
       </c>
       <c r="L6" t="n">
-        <v>315405.814400852</v>
+        <v>386179.2626390934</v>
       </c>
       <c r="M6" t="n">
-        <v>278181.166809495</v>
+        <v>363548.8360739281</v>
       </c>
       <c r="N6" t="n">
-        <v>410788.4605384216</v>
+        <v>356207.4339295985</v>
       </c>
       <c r="O6" t="n">
-        <v>410788.4605384218</v>
+        <v>385923.8890908905</v>
       </c>
       <c r="P6" t="n">
-        <v>410788.4605384216</v>
+        <v>411101.101867343</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.233007826809475e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960528</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1272.667109221555</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1055.524022280361</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960528</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734255233</v>
+        <v>239.6556507682058</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480607</v>
+        <v>80.35422757985498</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>182.8904086282564</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>85.37393949483089</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363239262</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>98.46987537387554</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>224.1225668780682</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>104.6212680456451</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363237277</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>98.46987537387554</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>224.1225668780682</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>104.6212680456451</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363239262</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>98.46987537387554</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>224.1225668780682</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>104.6212680456451</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070796</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765292</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708732</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>197.5685714592849</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>313.8709546141469</v>
       </c>
     </row>
     <row r="3">
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500676</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807531</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642684</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881889</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>178.7206944916692</v>
+        <v>195.5884214778207</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>76.57480253626902</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>52.51097591660135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>180.5549891403835</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>60.0057313214337</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>142.1581588304053</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>37.94334102242036</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>95.54657333323198</v>
       </c>
       <c r="W7" t="n">
-        <v>38.33097478360028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>130.0686103586482</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>98.36307299960782</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>8.076021058829096e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079607</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524904</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646667</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.418948802908</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933479</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876055</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460624</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061224</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316495</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231217</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973331</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753595</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827661</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142099</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263686</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410378</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.7502036914897</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333977</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435875</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970828</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289727</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963488</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682324</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.105494846613</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439958</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.520403377437</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621629</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564889</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312004</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963016</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665013</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058033</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923513</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841643</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823533</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653057</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195711</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187289</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148694</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.862235900503</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770398</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528322</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.288477617353</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477783</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354624</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.116249685312779</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>52.39679208970951</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>197.2442159930211</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>434.2352967288159</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>650.8061459081059</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>807.382572214997</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>898.3686775561781</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>912.9052219745731</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>862.0305141662442</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>735.7231000600848</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>552.4974082048208</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>321.3836192950291</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>116.5865397040651</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>22.3963829974567</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4092999748250222</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.737434914174665</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>26.43785825005532</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>94.2494038432944</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>258.6275679220898</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>442.0357071717923</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>594.3715588869158</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>693.6035745257473</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>675.79840429186</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>651.3054025843554</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>50.84665290144604</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.03378371108121</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1800944022483333</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.294973475645426</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>20.40440053801117</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>69.01611143122793</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>162.2546247281316</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>266.6341910795322</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>341.1999656427755</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>359.7475240050371</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>351.1935319594499</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>324.3840690848646</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>277.5666101816976</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>192.1727334924548</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>103.1903528231116</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>39.99512866192983</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>9.80579575957591</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1251803713988416</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>200.3460366764704</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622175</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836733</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176183</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187897</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095315</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099628</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678521</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288365</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.89877181692508</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272383</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490985</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743304</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848991</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021686</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296655</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.5386292914155</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564705</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256219</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814117</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979575</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.026051228909</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>130.3030555148463</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009591</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250132</v>
+        <v>286.8025810975471</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9556134883069083</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>253.1893922021296</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>430.7162948631254</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>571.6161572450098</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>668.0224443289054</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>683.4921583779822</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>631.9323027445574</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>504.4901043048152</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>330.1917183303713</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>105.798081480897</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>131.7899412554231</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>304.1942681974333</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>455.8171791070416</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>551.469540603729</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>544.4566922085268</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>508.709158139911</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>68.89544461145886</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>244.3646992536493</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>368.7899909030916</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>399.3314009668777</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>395.3257043386785</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>348.9691969989042</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>274.8451694465911</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>106.0106902407604</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>57.74979223202591</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
